--- a/1-Data/CDOM/Winter grab/WinterGrab2/25Jun24/Output/Corrected/Metadata_table.xlsx
+++ b/1-Data/CDOM/Winter grab/WinterGrab2/25Jun24/Output/Corrected/Metadata_table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cd2dd71d79f43c4e/Documents/GitHub/Winter-Grab-Thesis-project/1-Data/CDOM/Winter grab/WinterGrab2/25Jun24/Output/Corrected/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{F0D6ABDE-76ED-44CF-9090-3C6D533B2817}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{507CF052-392F-4823-85FC-E104C8403886}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="8_{F0D6ABDE-76ED-44CF-9090-3C6D533B2817}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C22F93D4-6B68-49C8-9A3F-3BA9106AFBB9}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{D8F1A28B-16DC-4307-B3D7-730F768A24B2}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{D8F1A28B-16DC-4307-B3D7-730F768A24B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -155,6 +155,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -476,15 +480,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12B56595-89CD-4F38-9742-2994B6083FA1}">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="11.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -581,6 +585,9 @@
       <c r="I3" t="s">
         <v>11</v>
       </c>
+      <c r="K3">
+        <v>1.641</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
@@ -611,6 +618,9 @@
       <c r="I4" t="s">
         <v>11</v>
       </c>
+      <c r="K4">
+        <v>1.641</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
